--- a/_Out/NFDataCfg/Excel/Clan.xlsx
+++ b/_Out/NFDataCfg/Excel/Clan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Id</t>
   </si>
@@ -58,21 +50,9 @@
     <t>Clan_Icon</t>
   </si>
   <si>
-    <t>Clan_MemeberCount</t>
-  </si>
-  <si>
-    <t>Clan_MemeberMaxCount</t>
-  </si>
-  <si>
-    <t>Clan_Honor</t>
-  </si>
-  <si>
     <t>Clan_CreateTime</t>
   </si>
   <si>
-    <t>Clan_Exp</t>
-  </si>
-  <si>
     <t>Guild_EctypID</t>
   </si>
   <si>
@@ -139,21 +119,9 @@
     <t>公会头像</t>
   </si>
   <si>
-    <t>成员数量(增加个字段，不然遍历Record太麻烦)</t>
-  </si>
-  <si>
-    <t>成员最大数量</t>
-  </si>
-  <si>
-    <t>公会荣誉</t>
-  </si>
-  <si>
     <t>公会创建时间</t>
   </si>
   <si>
-    <t>公会经验</t>
-  </si>
-  <si>
     <t>工会副本ID</t>
   </si>
   <si>
@@ -184,37 +152,37 @@
     <t>Receive</t>
   </si>
   <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>JoinTime</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>AllContribution</t>
+  </si>
+  <si>
+    <t>guild</t>
+  </si>
+  <si>
+    <t>Clan_AppyList</t>
+  </si>
+  <si>
     <t>VIP</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>GameID</t>
-  </si>
-  <si>
-    <t>JoinTime</t>
-  </si>
-  <si>
-    <t>Contribution</t>
-  </si>
-  <si>
-    <t>LastTime</t>
-  </si>
-  <si>
-    <t>AllContribution</t>
-  </si>
-  <si>
-    <t>guild</t>
-  </si>
-  <si>
-    <t>Clan_AppyList</t>
   </si>
   <si>
     <t>Clan_Building</t>
@@ -228,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -257,8 +225,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,54 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,14 +256,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -347,24 +271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,14 +287,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +307,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -428,49 +396,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,115 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,60 +696,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,7 +719,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,6 +774,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -834,148 +802,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,54 +984,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1352,36 +1320,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.3359375" customWidth="1"/>
+    <col min="2" max="2" width="18.3359375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="10.4666666666667" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="19.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="29.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="22.4666666666667" customWidth="1"/>
-    <col min="13" max="13" width="17.2" customWidth="1"/>
-    <col min="14" max="14" width="16.2" customWidth="1"/>
-    <col min="15" max="15" width="10.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="15.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="20.046875" customWidth="1"/>
+    <col min="5" max="5" width="11.859375" customWidth="1"/>
+    <col min="6" max="6" width="10.46875" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.3359375" customWidth="1"/>
+    <col min="10" max="10" width="19.3359375" customWidth="1"/>
+    <col min="11" max="11" width="16.203125" customWidth="1"/>
+    <col min="12" max="12" width="15.4296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:16">
+    <row r="1" s="4" customFormat="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1418,473 +1382,353 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:12">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="17" spans="1:12">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:16">
-      <c r="A4" s="8" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:16">
-      <c r="A5" s="8" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="14.75" spans="1:12">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A7" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="18" customHeight="1" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="18" customHeight="1" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="15.75" spans="1:16">
-      <c r="A10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P7:P9 B7:I9 J7:O9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J9 K7:K9 L7:L9 B7:I9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1895,20 +1739,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.73333333333333" customWidth="1"/>
-    <col min="2" max="2" width="28.8666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.0666666666667" customWidth="1"/>
-    <col min="14" max="14" width="13.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.734375" customWidth="1"/>
+    <col min="2" max="2" width="28.8671875" customWidth="1"/>
+    <col min="12" max="12" width="11.0703125" customWidth="1"/>
+    <col min="13" max="13" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1916,12 +1760,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
@@ -1929,15 +1773,15 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1945,7 +1789,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1953,7 +1797,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1961,7 +1805,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1969,7 +1813,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1977,7 +1821,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1985,112 +1829,106 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:15">
+    <row r="11" s="3" customFormat="1" spans="1:14">
       <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:15">
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
@@ -2098,12 +1936,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>50</v>
@@ -2111,7 +1949,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2119,7 +1957,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -2127,7 +1965,7 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -2135,7 +1973,7 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -2143,7 +1981,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2151,7 +1989,7 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2159,7 +1997,7 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2167,7 +2005,7 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2175,38 +2013,38 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2216,12 +2054,12 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>50</v>
@@ -2229,7 +2067,7 @@
     </row>
     <row r="29" s="2" customFormat="1" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -2237,7 +2075,7 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -2245,7 +2083,7 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -2253,7 +2091,7 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -2261,7 +2099,7 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -2269,7 +2107,7 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -2277,7 +2115,7 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -2285,7 +2123,7 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2293,32 +2131,32 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3"/>
     </row>
@@ -2327,12 +2165,12 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2">
         <v>50</v>
@@ -2340,7 +2178,7 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -2348,7 +2186,7 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -2356,7 +2194,7 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -2364,7 +2202,7 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -2372,7 +2210,7 @@
     </row>
     <row r="46" s="2" customFormat="1" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -2380,7 +2218,7 @@
     </row>
     <row r="47" s="2" customFormat="1" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -2388,7 +2226,7 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2396,7 +2234,7 @@
     </row>
     <row r="49" s="2" customFormat="1" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -2404,35 +2242,35 @@
     </row>
     <row r="50" s="2" customFormat="1" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:A12 A24:A25 A50:A51 G37:G38 G50:G52 L1:L10 L13:L52 A37:B38">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A11:A12 A24:A25 A50:A51 G37:G38 G50:G52 K1:K10 K13:K52 A37:B38">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B10 B20:B23 B33:B36 B46:B49 D1:G10 A4:B6 A17:B19 A30:B32 A43:B45 D13:G23 D26:G36 D39:G49">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11:B12 B24:B25 H37:H38 H50:H52 M1:M10 M13:M52"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B11:B12 B24:B25 H37:H38 H50:H52 L1:L10 L13:L52"/>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B52 C1:C10 C13:C23 C26:C49 A2:B3 A15:B16 A28:B29 A41:B42">
       <formula1>0</formula1>
     </dataValidation>
